--- a/20 開発資料/05.改修管理/改修管理_精算入力.xlsx
+++ b/20 開発資料/05.改修管理/改修管理_精算入力.xlsx
@@ -1223,151 +1223,151 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3403,694 +3403,661 @@
   <dimension ref="A1:BG18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="77" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="3" style="77"/>
+    <col min="1" max="1" width="3.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="3" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="91" t="s">
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="89"/>
-      <c r="AH1" s="80" t="s">
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80" t="s">
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="80"/>
-      <c r="AR1" s="80" t="s">
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80" t="s">
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="85"/>
+      <c r="AU1" s="85"/>
+      <c r="AV1" s="85"/>
+      <c r="AW1" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="80"/>
-      <c r="BA1" s="80"/>
+      <c r="AX1" s="85"/>
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="85"/>
+      <c r="BA1" s="85"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="87"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="81">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="95"/>
+      <c r="AH2" s="89">
         <v>41611</v>
       </c>
-      <c r="AI2" s="81"/>
-      <c r="AJ2" s="81"/>
-      <c r="AK2" s="81"/>
-      <c r="AL2" s="81"/>
-      <c r="AM2" s="80" t="s">
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="89"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="80"/>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="81"/>
-      <c r="AS2" s="81"/>
-      <c r="AT2" s="81"/>
-      <c r="AU2" s="81"/>
-      <c r="AV2" s="81"/>
-      <c r="AW2" s="80"/>
-      <c r="AX2" s="80"/>
-      <c r="AY2" s="80"/>
-      <c r="AZ2" s="80"/>
-      <c r="BA2" s="80"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="85"/>
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="85"/>
+      <c r="AR2" s="89"/>
+      <c r="AS2" s="89"/>
+      <c r="AT2" s="89"/>
+      <c r="AU2" s="89"/>
+      <c r="AV2" s="89"/>
+      <c r="AW2" s="85"/>
+      <c r="AX2" s="85"/>
+      <c r="AY2" s="85"/>
+      <c r="AZ2" s="85"/>
+      <c r="BA2" s="85"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="87"/>
-      <c r="AE3" s="87"/>
-      <c r="AF3" s="87"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="81"/>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="81"/>
-      <c r="AL3" s="81"/>
-      <c r="AM3" s="80"/>
-      <c r="AN3" s="80"/>
-      <c r="AO3" s="80"/>
-      <c r="AP3" s="80"/>
-      <c r="AQ3" s="80"/>
-      <c r="AR3" s="81"/>
-      <c r="AS3" s="81"/>
-      <c r="AT3" s="81"/>
-      <c r="AU3" s="81"/>
-      <c r="AV3" s="81"/>
-      <c r="AW3" s="80"/>
-      <c r="AX3" s="80"/>
-      <c r="AY3" s="80"/>
-      <c r="AZ3" s="80"/>
-      <c r="BA3" s="80"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="95"/>
+      <c r="AH3" s="89"/>
+      <c r="AI3" s="89"/>
+      <c r="AJ3" s="89"/>
+      <c r="AK3" s="89"/>
+      <c r="AL3" s="89"/>
+      <c r="AM3" s="85"/>
+      <c r="AN3" s="85"/>
+      <c r="AO3" s="85"/>
+      <c r="AP3" s="85"/>
+      <c r="AQ3" s="85"/>
+      <c r="AR3" s="89"/>
+      <c r="AS3" s="89"/>
+      <c r="AT3" s="89"/>
+      <c r="AU3" s="89"/>
+      <c r="AV3" s="89"/>
+      <c r="AW3" s="85"/>
+      <c r="AX3" s="85"/>
+      <c r="AY3" s="85"/>
+      <c r="AZ3" s="85"/>
+      <c r="BA3" s="85"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="83"/>
-      <c r="Y4" s="83"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="83"/>
-      <c r="AD4" s="83"/>
-      <c r="AE4" s="83"/>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="81"/>
-      <c r="AI4" s="81"/>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="81"/>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="80"/>
-      <c r="AP4" s="80"/>
-      <c r="AQ4" s="80"/>
-      <c r="AR4" s="81"/>
-      <c r="AS4" s="81"/>
-      <c r="AT4" s="81"/>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="81"/>
-      <c r="AW4" s="80"/>
-      <c r="AX4" s="80"/>
-      <c r="AY4" s="80"/>
-      <c r="AZ4" s="80"/>
-      <c r="BA4" s="80"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="89"/>
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="85"/>
+      <c r="AN4" s="85"/>
+      <c r="AO4" s="85"/>
+      <c r="AP4" s="85"/>
+      <c r="AQ4" s="85"/>
+      <c r="AR4" s="89"/>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="85"/>
+      <c r="AX4" s="85"/>
+      <c r="AY4" s="85"/>
+      <c r="AZ4" s="85"/>
+      <c r="BA4" s="85"/>
     </row>
     <row r="5" spans="1:59">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="AS5" s="79"/>
-      <c r="AT5" s="79"/>
-      <c r="AU5" s="79"/>
-      <c r="AV5" s="79"/>
-      <c r="AW5" s="79"/>
-      <c r="AX5" s="79"/>
-      <c r="AY5" s="79"/>
-      <c r="AZ5" s="79"/>
-      <c r="BA5" s="79"/>
-      <c r="BB5" s="79"/>
-      <c r="BC5" s="79"/>
-      <c r="BD5" s="79"/>
-      <c r="BE5" s="79"/>
-      <c r="BF5" s="79"/>
-      <c r="BG5" s="79"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="AS5" s="65"/>
+      <c r="AT5" s="65"/>
+      <c r="AU5" s="65"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="65"/>
+      <c r="AX5" s="65"/>
+      <c r="AY5" s="65"/>
+      <c r="AZ5" s="65"/>
+      <c r="BA5" s="65"/>
+      <c r="BB5" s="65"/>
+      <c r="BC5" s="65"/>
+      <c r="BD5" s="65"/>
+      <c r="BE5" s="65"/>
+      <c r="BF5" s="65"/>
+      <c r="BG5" s="65"/>
     </row>
     <row r="6" spans="1:59" ht="16.5" customHeight="1">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106" t="s">
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="106"/>
-      <c r="S6" s="106"/>
-      <c r="T6" s="106"/>
-      <c r="U6" s="106"/>
-      <c r="V6" s="106"/>
-      <c r="W6" s="106"/>
-      <c r="X6" s="106" t="s">
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="Y6" s="106"/>
-      <c r="Z6" s="106"/>
-      <c r="AA6" s="106"/>
-      <c r="AB6" s="106"/>
-      <c r="AC6" s="106"/>
-      <c r="AD6" s="106"/>
-      <c r="AE6" s="106"/>
-      <c r="AF6" s="106"/>
-      <c r="AG6" s="106"/>
-      <c r="AH6" s="106"/>
-      <c r="AI6" s="106"/>
-      <c r="AJ6" s="106"/>
-      <c r="AK6" s="106" t="s">
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="82"/>
+      <c r="AF6" s="82"/>
+      <c r="AG6" s="82"/>
+      <c r="AH6" s="82"/>
+      <c r="AI6" s="82"/>
+      <c r="AJ6" s="82"/>
+      <c r="AK6" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="AL6" s="106"/>
-      <c r="AM6" s="106"/>
-      <c r="AN6" s="106"/>
-      <c r="AO6" s="106"/>
-      <c r="AP6" s="106"/>
-      <c r="AQ6" s="106"/>
-      <c r="AR6" s="106"/>
-      <c r="AS6" s="106"/>
-      <c r="AT6" s="106"/>
-      <c r="AU6" s="106"/>
-      <c r="AV6" s="106"/>
-      <c r="AW6" s="99" t="s">
+      <c r="AL6" s="82"/>
+      <c r="AM6" s="82"/>
+      <c r="AN6" s="82"/>
+      <c r="AO6" s="82"/>
+      <c r="AP6" s="82"/>
+      <c r="AQ6" s="82"/>
+      <c r="AR6" s="82"/>
+      <c r="AS6" s="82"/>
+      <c r="AT6" s="82"/>
+      <c r="AU6" s="82"/>
+      <c r="AV6" s="82"/>
+      <c r="AW6" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="AX6" s="99"/>
-      <c r="AY6" s="99"/>
-      <c r="AZ6" s="99"/>
-      <c r="BA6" s="100"/>
-      <c r="BB6" s="79"/>
-      <c r="BC6" s="79"/>
-      <c r="BD6" s="79"/>
-      <c r="BE6" s="79"/>
-      <c r="BF6" s="79"/>
-      <c r="BG6" s="79"/>
+      <c r="AX6" s="83"/>
+      <c r="AY6" s="83"/>
+      <c r="AZ6" s="83"/>
+      <c r="BA6" s="84"/>
+      <c r="BB6" s="65"/>
+      <c r="BC6" s="65"/>
+      <c r="BD6" s="65"/>
+      <c r="BE6" s="65"/>
+      <c r="BF6" s="65"/>
+      <c r="BG6" s="65"/>
     </row>
-    <row r="7" spans="1:59" s="78" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A7" s="92">
+    <row r="7" spans="1:59" s="64" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A7" s="66">
         <v>1</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107" t="s">
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="108" t="s">
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="Y7" s="108"/>
-      <c r="Z7" s="108"/>
-      <c r="AA7" s="108"/>
-      <c r="AB7" s="108"/>
-      <c r="AC7" s="108"/>
-      <c r="AD7" s="108"/>
-      <c r="AE7" s="108"/>
-      <c r="AF7" s="108"/>
-      <c r="AG7" s="108"/>
-      <c r="AH7" s="108"/>
-      <c r="AI7" s="108"/>
-      <c r="AJ7" s="108"/>
-      <c r="AK7" s="107" t="s">
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="87"/>
+      <c r="AC7" s="87"/>
+      <c r="AD7" s="87"/>
+      <c r="AE7" s="87"/>
+      <c r="AF7" s="87"/>
+      <c r="AG7" s="87"/>
+      <c r="AH7" s="87"/>
+      <c r="AI7" s="87"/>
+      <c r="AJ7" s="87"/>
+      <c r="AK7" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="AL7" s="107"/>
-      <c r="AM7" s="107"/>
-      <c r="AN7" s="107"/>
-      <c r="AO7" s="107"/>
-      <c r="AP7" s="107"/>
-      <c r="AQ7" s="107"/>
-      <c r="AR7" s="107"/>
-      <c r="AS7" s="107"/>
-      <c r="AT7" s="107"/>
-      <c r="AU7" s="107"/>
-      <c r="AV7" s="107"/>
-      <c r="AW7" s="93"/>
-      <c r="AX7" s="93"/>
-      <c r="AY7" s="93"/>
-      <c r="AZ7" s="93"/>
-      <c r="BA7" s="94"/>
+      <c r="AL7" s="86"/>
+      <c r="AM7" s="86"/>
+      <c r="AN7" s="86"/>
+      <c r="AO7" s="86"/>
+      <c r="AP7" s="86"/>
+      <c r="AQ7" s="86"/>
+      <c r="AR7" s="86"/>
+      <c r="AS7" s="86"/>
+      <c r="AT7" s="86"/>
+      <c r="AU7" s="86"/>
+      <c r="AV7" s="86"/>
+      <c r="AW7" s="80"/>
+      <c r="AX7" s="80"/>
+      <c r="AY7" s="80"/>
+      <c r="AZ7" s="80"/>
+      <c r="BA7" s="81"/>
     </row>
-    <row r="8" spans="1:59" s="78" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A8" s="101">
+    <row r="8" spans="1:59" s="64" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A8" s="69">
         <v>2</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109" t="s">
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="109"/>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="109"/>
-      <c r="W8" s="109"/>
-      <c r="X8" s="110" t="s">
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="109"/>
-      <c r="AA8" s="109"/>
-      <c r="AB8" s="109"/>
-      <c r="AC8" s="109"/>
-      <c r="AD8" s="109"/>
-      <c r="AE8" s="109"/>
-      <c r="AF8" s="109"/>
-      <c r="AG8" s="109"/>
-      <c r="AH8" s="109"/>
-      <c r="AI8" s="109"/>
-      <c r="AJ8" s="109"/>
-      <c r="AK8" s="109"/>
-      <c r="AL8" s="109"/>
-      <c r="AM8" s="109"/>
-      <c r="AN8" s="109"/>
-      <c r="AO8" s="109"/>
-      <c r="AP8" s="109"/>
-      <c r="AQ8" s="109"/>
-      <c r="AR8" s="109"/>
-      <c r="AS8" s="109"/>
-      <c r="AT8" s="109"/>
-      <c r="AU8" s="109"/>
-      <c r="AV8" s="109"/>
-      <c r="AW8" s="103"/>
-      <c r="AX8" s="103"/>
-      <c r="AY8" s="103"/>
-      <c r="AZ8" s="103"/>
-      <c r="BA8" s="104"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="74"/>
+      <c r="AK8" s="74"/>
+      <c r="AL8" s="74"/>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="74"/>
+      <c r="AS8" s="74"/>
+      <c r="AT8" s="74"/>
+      <c r="AU8" s="74"/>
+      <c r="AV8" s="74"/>
+      <c r="AW8" s="78"/>
+      <c r="AX8" s="78"/>
+      <c r="AY8" s="78"/>
+      <c r="AZ8" s="78"/>
+      <c r="BA8" s="79"/>
     </row>
-    <row r="9" spans="1:59" s="78" customFormat="1" ht="27" customHeight="1">
-      <c r="A9" s="101">
+    <row r="9" spans="1:59" s="64" customFormat="1" ht="27" customHeight="1">
+      <c r="A9" s="69">
         <v>3</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="109"/>
-      <c r="V9" s="109"/>
-      <c r="W9" s="109"/>
-      <c r="X9" s="110" t="s">
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="Y9" s="109"/>
-      <c r="Z9" s="109"/>
-      <c r="AA9" s="109"/>
-      <c r="AB9" s="109"/>
-      <c r="AC9" s="109"/>
-      <c r="AD9" s="109"/>
-      <c r="AE9" s="109"/>
-      <c r="AF9" s="109"/>
-      <c r="AG9" s="109"/>
-      <c r="AH9" s="109"/>
-      <c r="AI9" s="109"/>
-      <c r="AJ9" s="109"/>
-      <c r="AK9" s="109"/>
-      <c r="AL9" s="109"/>
-      <c r="AM9" s="109"/>
-      <c r="AN9" s="109"/>
-      <c r="AO9" s="109"/>
-      <c r="AP9" s="109"/>
-      <c r="AQ9" s="109"/>
-      <c r="AR9" s="109"/>
-      <c r="AS9" s="109"/>
-      <c r="AT9" s="109"/>
-      <c r="AU9" s="109"/>
-      <c r="AV9" s="109"/>
-      <c r="AW9" s="102"/>
-      <c r="AX9" s="102"/>
-      <c r="AY9" s="102"/>
-      <c r="AZ9" s="102"/>
-      <c r="BA9" s="105"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="74"/>
+      <c r="AI9" s="74"/>
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="74"/>
+      <c r="AL9" s="74"/>
+      <c r="AM9" s="74"/>
+      <c r="AN9" s="74"/>
+      <c r="AO9" s="74"/>
+      <c r="AP9" s="74"/>
+      <c r="AQ9" s="74"/>
+      <c r="AR9" s="74"/>
+      <c r="AS9" s="74"/>
+      <c r="AT9" s="74"/>
+      <c r="AU9" s="74"/>
+      <c r="AV9" s="74"/>
+      <c r="AW9" s="75"/>
+      <c r="AX9" s="75"/>
+      <c r="AY9" s="75"/>
+      <c r="AZ9" s="75"/>
+      <c r="BA9" s="76"/>
     </row>
-    <row r="10" spans="1:59" s="78" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A10" s="101">
+    <row r="10" spans="1:59" s="64" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A10" s="69">
         <v>4</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="109"/>
-      <c r="W10" s="109"/>
-      <c r="X10" s="109"/>
-      <c r="Y10" s="109"/>
-      <c r="Z10" s="109"/>
-      <c r="AA10" s="109"/>
-      <c r="AB10" s="109"/>
-      <c r="AC10" s="109"/>
-      <c r="AD10" s="109"/>
-      <c r="AE10" s="109"/>
-      <c r="AF10" s="109"/>
-      <c r="AG10" s="109"/>
-      <c r="AH10" s="109"/>
-      <c r="AI10" s="109"/>
-      <c r="AJ10" s="109"/>
-      <c r="AK10" s="109"/>
-      <c r="AL10" s="109"/>
-      <c r="AM10" s="109"/>
-      <c r="AN10" s="109"/>
-      <c r="AO10" s="109"/>
-      <c r="AP10" s="109"/>
-      <c r="AQ10" s="109"/>
-      <c r="AR10" s="109"/>
-      <c r="AS10" s="109"/>
-      <c r="AT10" s="109"/>
-      <c r="AU10" s="109"/>
-      <c r="AV10" s="109"/>
-      <c r="AW10" s="102"/>
-      <c r="AX10" s="102"/>
-      <c r="AY10" s="102"/>
-      <c r="AZ10" s="102"/>
-      <c r="BA10" s="105"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="75"/>
+      <c r="AY10" s="75"/>
+      <c r="AZ10" s="75"/>
+      <c r="BA10" s="76"/>
     </row>
-    <row r="11" spans="1:59" s="78" customFormat="1" ht="36" customHeight="1">
-      <c r="A11" s="95">
+    <row r="11" spans="1:59" s="64" customFormat="1" ht="36" customHeight="1">
+      <c r="A11" s="67">
         <v>5</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="111"/>
-      <c r="W11" s="111"/>
-      <c r="X11" s="112"/>
-      <c r="Y11" s="112"/>
-      <c r="Z11" s="112"/>
-      <c r="AA11" s="112"/>
-      <c r="AB11" s="112"/>
-      <c r="AC11" s="112"/>
-      <c r="AD11" s="112"/>
-      <c r="AE11" s="112"/>
-      <c r="AF11" s="112"/>
-      <c r="AG11" s="112"/>
-      <c r="AH11" s="112"/>
-      <c r="AI11" s="112"/>
-      <c r="AJ11" s="112"/>
-      <c r="AK11" s="111"/>
-      <c r="AL11" s="111"/>
-      <c r="AM11" s="111"/>
-      <c r="AN11" s="111"/>
-      <c r="AO11" s="111"/>
-      <c r="AP11" s="111"/>
-      <c r="AQ11" s="111"/>
-      <c r="AR11" s="111"/>
-      <c r="AS11" s="111"/>
-      <c r="AT11" s="111"/>
-      <c r="AU11" s="111"/>
-      <c r="AV11" s="111"/>
-      <c r="AW11" s="96"/>
-      <c r="AX11" s="96"/>
-      <c r="AY11" s="96"/>
-      <c r="AZ11" s="96"/>
-      <c r="BA11" s="97"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="71"/>
+      <c r="AF11" s="71"/>
+      <c r="AG11" s="71"/>
+      <c r="AH11" s="71"/>
+      <c r="AI11" s="71"/>
+      <c r="AJ11" s="71"/>
+      <c r="AK11" s="70"/>
+      <c r="AL11" s="70"/>
+      <c r="AM11" s="70"/>
+      <c r="AN11" s="70"/>
+      <c r="AO11" s="70"/>
+      <c r="AP11" s="70"/>
+      <c r="AQ11" s="70"/>
+      <c r="AR11" s="70"/>
+      <c r="AS11" s="70"/>
+      <c r="AT11" s="70"/>
+      <c r="AU11" s="70"/>
+      <c r="AV11" s="70"/>
+      <c r="AW11" s="72"/>
+      <c r="AX11" s="72"/>
+      <c r="AY11" s="72"/>
+      <c r="AZ11" s="72"/>
+      <c r="BA11" s="73"/>
     </row>
-    <row r="12" spans="1:59" s="78" customFormat="1"/>
-    <row r="13" spans="1:59" s="78" customFormat="1"/>
-    <row r="14" spans="1:59" s="78" customFormat="1"/>
-    <row r="15" spans="1:59" s="78" customFormat="1"/>
-    <row r="16" spans="1:59" s="78" customFormat="1"/>
-    <row r="17" s="78" customFormat="1"/>
-    <row r="18" s="78" customFormat="1"/>
+    <row r="12" spans="1:59" s="64" customFormat="1"/>
+    <row r="13" spans="1:59" s="64" customFormat="1"/>
+    <row r="14" spans="1:59" s="64" customFormat="1"/>
+    <row r="15" spans="1:59" s="64" customFormat="1"/>
+    <row r="16" spans="1:59" s="64" customFormat="1"/>
+    <row r="17" s="64" customFormat="1"/>
+    <row r="18" s="64" customFormat="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AJ11"/>
-    <mergeCell ref="AK11:AV11"/>
-    <mergeCell ref="AW11:BA11"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AJ10"/>
-    <mergeCell ref="AK10:AV10"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AJ9"/>
-    <mergeCell ref="AK9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AJ8"/>
-    <mergeCell ref="AK8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="X6:AJ6"/>
-    <mergeCell ref="AK6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="X7:AJ7"/>
-    <mergeCell ref="AK7:AV7"/>
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="A2:I4"/>
     <mergeCell ref="J2:O4"/>
@@ -4101,6 +4068,39 @@
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J1:O1"/>
     <mergeCell ref="P1:AG4"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="X7:AJ7"/>
+    <mergeCell ref="AK7:AV7"/>
+    <mergeCell ref="AW7:BA7"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="X6:AJ6"/>
+    <mergeCell ref="AK6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AJ8"/>
+    <mergeCell ref="AK8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AJ9"/>
+    <mergeCell ref="AK9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AJ10"/>
+    <mergeCell ref="AK10:AV10"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AJ11"/>
+    <mergeCell ref="AK11:AV11"/>
+    <mergeCell ref="AW11:BA11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>
@@ -4116,7 +4116,7 @@
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4177,10 +4177,10 @@
       <c r="J15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="65" t="s">
+      <c r="K15" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="66"/>
+      <c r="L15" s="102"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" thickTop="1" thickBot="1">
       <c r="A16" s="30"/>
@@ -4199,8 +4199,8 @@
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="72"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="108"/>
     </row>
     <row r="17" spans="1:12" ht="12.75" thickTop="1">
       <c r="A17" s="36" t="s">
@@ -4229,8 +4229,8 @@
       <c r="J17" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="69"/>
-      <c r="L17" s="70"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="106"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="49" t="s">
@@ -4261,10 +4261,10 @@
       <c r="J18" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="67" t="s">
+      <c r="K18" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="68"/>
+      <c r="L18" s="104"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" thickBot="1">
       <c r="A19" s="42" t="s">
@@ -4293,10 +4293,10 @@
       <c r="J19" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="63" t="s">
+      <c r="K19" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="64"/>
+      <c r="L19" s="100"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" thickTop="1">
       <c r="A20" s="19" t="s">
@@ -4325,8 +4325,8 @@
       </c>
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="74"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="110"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="13" t="s">
@@ -4357,10 +4357,10 @@
       <c r="J21" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="75" t="s">
+      <c r="K21" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="76"/>
+      <c r="L21" s="112"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" thickBot="1">
       <c r="A22" s="42" t="s">
@@ -4391,10 +4391,10 @@
       <c r="J22" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="63" t="s">
+      <c r="K22" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="64"/>
+      <c r="L22" s="100"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" thickTop="1"/>
     <row r="41" spans="8:9">
@@ -4735,7 +4735,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <sheetData/>

--- a/20 開発資料/05.改修管理/改修管理_精算入力.xlsx
+++ b/20 開発資料/05.改修管理/改修管理_精算入力.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="20160" windowHeight="7830"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="20160" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="精算登録" sheetId="4" r:id="rId1"/>
@@ -522,7 +522,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -620,6 +620,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1033,7 +1040,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1240,6 +1247,81 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1252,81 +1334,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1368,6 +1375,18 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3402,8 +3421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25"/>
@@ -3413,244 +3432,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="90" t="s">
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="92"/>
-      <c r="AH1" s="85" t="s">
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85" t="s">
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="85"/>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="85" t="s">
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="70"/>
+      <c r="AR1" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="85"/>
-      <c r="AT1" s="85"/>
-      <c r="AU1" s="85"/>
-      <c r="AV1" s="85"/>
-      <c r="AW1" s="85" t="s">
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="70"/>
+      <c r="AU1" s="70"/>
+      <c r="AV1" s="70"/>
+      <c r="AW1" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="85"/>
-      <c r="AY1" s="85"/>
-      <c r="AZ1" s="85"/>
-      <c r="BA1" s="85"/>
+      <c r="AX1" s="70"/>
+      <c r="AY1" s="70"/>
+      <c r="AZ1" s="70"/>
+      <c r="BA1" s="70"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="95"/>
-      <c r="AH2" s="89">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="72">
         <v>41611</v>
       </c>
-      <c r="AI2" s="89"/>
-      <c r="AJ2" s="89"/>
-      <c r="AK2" s="89"/>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="85" t="s">
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="85"/>
-      <c r="AP2" s="85"/>
-      <c r="AQ2" s="85"/>
-      <c r="AR2" s="89"/>
-      <c r="AS2" s="89"/>
-      <c r="AT2" s="89"/>
-      <c r="AU2" s="89"/>
-      <c r="AV2" s="89"/>
-      <c r="AW2" s="85"/>
-      <c r="AX2" s="85"/>
-      <c r="AY2" s="85"/>
-      <c r="AZ2" s="85"/>
-      <c r="BA2" s="85"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="70"/>
+      <c r="AY2" s="70"/>
+      <c r="AZ2" s="70"/>
+      <c r="BA2" s="70"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="89"/>
-      <c r="AI3" s="89"/>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="89"/>
-      <c r="AL3" s="89"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="85"/>
-      <c r="AO3" s="85"/>
-      <c r="AP3" s="85"/>
-      <c r="AQ3" s="85"/>
-      <c r="AR3" s="89"/>
-      <c r="AS3" s="89"/>
-      <c r="AT3" s="89"/>
-      <c r="AU3" s="89"/>
-      <c r="AV3" s="89"/>
-      <c r="AW3" s="85"/>
-      <c r="AX3" s="85"/>
-      <c r="AY3" s="85"/>
-      <c r="AZ3" s="85"/>
-      <c r="BA3" s="85"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="70"/>
+      <c r="AX3" s="70"/>
+      <c r="AY3" s="70"/>
+      <c r="AZ3" s="70"/>
+      <c r="BA3" s="70"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="97"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="97"/>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="98"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="89"/>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="85"/>
-      <c r="AN4" s="85"/>
-      <c r="AO4" s="85"/>
-      <c r="AP4" s="85"/>
-      <c r="AQ4" s="85"/>
-      <c r="AR4" s="89"/>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="85"/>
-      <c r="AX4" s="85"/>
-      <c r="AY4" s="85"/>
-      <c r="AZ4" s="85"/>
-      <c r="BA4" s="85"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="70"/>
+      <c r="AO4" s="70"/>
+      <c r="AP4" s="70"/>
+      <c r="AQ4" s="70"/>
+      <c r="AR4" s="72"/>
+      <c r="AS4" s="72"/>
+      <c r="AT4" s="72"/>
+      <c r="AU4" s="72"/>
+      <c r="AV4" s="72"/>
+      <c r="AW4" s="70"/>
+      <c r="AX4" s="70"/>
+      <c r="AY4" s="70"/>
+      <c r="AZ4" s="70"/>
+      <c r="BA4" s="70"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="65"/>
@@ -3677,68 +3696,68 @@
       <c r="A6" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82" t="s">
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="82" t="s">
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="Y6" s="82"/>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="82"/>
-      <c r="AC6" s="82"/>
-      <c r="AD6" s="82"/>
-      <c r="AE6" s="82"/>
-      <c r="AF6" s="82"/>
-      <c r="AG6" s="82"/>
-      <c r="AH6" s="82"/>
-      <c r="AI6" s="82"/>
-      <c r="AJ6" s="82"/>
-      <c r="AK6" s="82" t="s">
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="86"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="86"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="86"/>
+      <c r="AH6" s="86"/>
+      <c r="AI6" s="86"/>
+      <c r="AJ6" s="86"/>
+      <c r="AK6" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="AL6" s="82"/>
-      <c r="AM6" s="82"/>
-      <c r="AN6" s="82"/>
-      <c r="AO6" s="82"/>
-      <c r="AP6" s="82"/>
-      <c r="AQ6" s="82"/>
-      <c r="AR6" s="82"/>
-      <c r="AS6" s="82"/>
-      <c r="AT6" s="82"/>
-      <c r="AU6" s="82"/>
-      <c r="AV6" s="82"/>
-      <c r="AW6" s="83" t="s">
+      <c r="AL6" s="86"/>
+      <c r="AM6" s="86"/>
+      <c r="AN6" s="86"/>
+      <c r="AO6" s="86"/>
+      <c r="AP6" s="86"/>
+      <c r="AQ6" s="86"/>
+      <c r="AR6" s="86"/>
+      <c r="AS6" s="86"/>
+      <c r="AT6" s="86"/>
+      <c r="AU6" s="86"/>
+      <c r="AV6" s="86"/>
+      <c r="AW6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="AX6" s="83"/>
-      <c r="AY6" s="83"/>
-      <c r="AZ6" s="83"/>
-      <c r="BA6" s="84"/>
+      <c r="AX6" s="87"/>
+      <c r="AY6" s="87"/>
+      <c r="AZ6" s="87"/>
+      <c r="BA6" s="88"/>
       <c r="BB6" s="65"/>
       <c r="BC6" s="65"/>
       <c r="BD6" s="65"/>
@@ -3750,304 +3769,304 @@
       <c r="A7" s="66">
         <v>1</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86" t="s">
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="87" t="s">
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="87"/>
-      <c r="AD7" s="87"/>
-      <c r="AE7" s="87"/>
-      <c r="AF7" s="87"/>
-      <c r="AG7" s="87"/>
-      <c r="AH7" s="87"/>
-      <c r="AI7" s="87"/>
-      <c r="AJ7" s="87"/>
-      <c r="AK7" s="86" t="s">
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="83"/>
+      <c r="AC7" s="83"/>
+      <c r="AD7" s="83"/>
+      <c r="AE7" s="83"/>
+      <c r="AF7" s="83"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="83"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="AL7" s="86"/>
-      <c r="AM7" s="86"/>
-      <c r="AN7" s="86"/>
-      <c r="AO7" s="86"/>
-      <c r="AP7" s="86"/>
-      <c r="AQ7" s="86"/>
-      <c r="AR7" s="86"/>
-      <c r="AS7" s="86"/>
-      <c r="AT7" s="86"/>
-      <c r="AU7" s="86"/>
-      <c r="AV7" s="86"/>
-      <c r="AW7" s="80"/>
-      <c r="AX7" s="80"/>
-      <c r="AY7" s="80"/>
-      <c r="AZ7" s="80"/>
-      <c r="BA7" s="81"/>
+      <c r="AL7" s="82"/>
+      <c r="AM7" s="82"/>
+      <c r="AN7" s="82"/>
+      <c r="AO7" s="82"/>
+      <c r="AP7" s="82"/>
+      <c r="AQ7" s="82"/>
+      <c r="AR7" s="82"/>
+      <c r="AS7" s="82"/>
+      <c r="AT7" s="82"/>
+      <c r="AU7" s="82"/>
+      <c r="AV7" s="82"/>
+      <c r="AW7" s="84"/>
+      <c r="AX7" s="84"/>
+      <c r="AY7" s="84"/>
+      <c r="AZ7" s="84"/>
+      <c r="BA7" s="85"/>
     </row>
     <row r="8" spans="1:59" s="64" customFormat="1" ht="33.75" customHeight="1">
       <c r="A8" s="69">
         <v>2</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="77" t="s">
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="89"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="74"/>
-      <c r="AI8" s="74"/>
-      <c r="AJ8" s="74"/>
-      <c r="AK8" s="74"/>
-      <c r="AL8" s="74"/>
-      <c r="AM8" s="74"/>
-      <c r="AN8" s="74"/>
-      <c r="AO8" s="74"/>
-      <c r="AP8" s="74"/>
-      <c r="AQ8" s="74"/>
-      <c r="AR8" s="74"/>
-      <c r="AS8" s="74"/>
-      <c r="AT8" s="74"/>
-      <c r="AU8" s="74"/>
-      <c r="AV8" s="74"/>
-      <c r="AW8" s="78"/>
-      <c r="AX8" s="78"/>
-      <c r="AY8" s="78"/>
-      <c r="AZ8" s="78"/>
-      <c r="BA8" s="79"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="89"/>
+      <c r="AE8" s="89"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="89"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="89"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="89"/>
+      <c r="AN8" s="89"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="89"/>
+      <c r="AQ8" s="89"/>
+      <c r="AR8" s="89"/>
+      <c r="AS8" s="89"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="89"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="91"/>
+      <c r="AX8" s="91"/>
+      <c r="AY8" s="91"/>
+      <c r="AZ8" s="91"/>
+      <c r="BA8" s="92"/>
     </row>
     <row r="9" spans="1:59" s="64" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="69">
         <v>3</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="77" t="s">
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="74"/>
-      <c r="AI9" s="74"/>
-      <c r="AJ9" s="74"/>
-      <c r="AK9" s="74"/>
-      <c r="AL9" s="74"/>
-      <c r="AM9" s="74"/>
-      <c r="AN9" s="74"/>
-      <c r="AO9" s="74"/>
-      <c r="AP9" s="74"/>
-      <c r="AQ9" s="74"/>
-      <c r="AR9" s="74"/>
-      <c r="AS9" s="74"/>
-      <c r="AT9" s="74"/>
-      <c r="AU9" s="74"/>
-      <c r="AV9" s="74"/>
-      <c r="AW9" s="75"/>
-      <c r="AX9" s="75"/>
-      <c r="AY9" s="75"/>
-      <c r="AZ9" s="75"/>
-      <c r="BA9" s="76"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="89"/>
+      <c r="AF9" s="89"/>
+      <c r="AG9" s="89"/>
+      <c r="AH9" s="89"/>
+      <c r="AI9" s="89"/>
+      <c r="AJ9" s="89"/>
+      <c r="AK9" s="89"/>
+      <c r="AL9" s="89"/>
+      <c r="AM9" s="89"/>
+      <c r="AN9" s="89"/>
+      <c r="AO9" s="89"/>
+      <c r="AP9" s="89"/>
+      <c r="AQ9" s="89"/>
+      <c r="AR9" s="89"/>
+      <c r="AS9" s="89"/>
+      <c r="AT9" s="89"/>
+      <c r="AU9" s="89"/>
+      <c r="AV9" s="89"/>
+      <c r="AW9" s="93"/>
+      <c r="AX9" s="93"/>
+      <c r="AY9" s="93"/>
+      <c r="AZ9" s="93"/>
+      <c r="BA9" s="94"/>
     </row>
     <row r="10" spans="1:59" s="64" customFormat="1" ht="18.75" customHeight="1">
       <c r="A10" s="69">
         <v>4</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="74"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="74"/>
-      <c r="AT10" s="74"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="74"/>
-      <c r="AW10" s="75"/>
-      <c r="AX10" s="75"/>
-      <c r="AY10" s="75"/>
-      <c r="AZ10" s="75"/>
-      <c r="BA10" s="76"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="89"/>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="89"/>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="89"/>
+      <c r="AJ10" s="89"/>
+      <c r="AK10" s="89"/>
+      <c r="AL10" s="89"/>
+      <c r="AM10" s="89"/>
+      <c r="AN10" s="89"/>
+      <c r="AO10" s="89"/>
+      <c r="AP10" s="89"/>
+      <c r="AQ10" s="89"/>
+      <c r="AR10" s="89"/>
+      <c r="AS10" s="89"/>
+      <c r="AT10" s="89"/>
+      <c r="AU10" s="89"/>
+      <c r="AV10" s="89"/>
+      <c r="AW10" s="93"/>
+      <c r="AX10" s="93"/>
+      <c r="AY10" s="93"/>
+      <c r="AZ10" s="93"/>
+      <c r="BA10" s="94"/>
     </row>
     <row r="11" spans="1:59" s="64" customFormat="1" ht="36" customHeight="1">
       <c r="A11" s="67">
         <v>5</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="71"/>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="71"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="71"/>
-      <c r="AF11" s="71"/>
-      <c r="AG11" s="71"/>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="71"/>
-      <c r="AJ11" s="71"/>
-      <c r="AK11" s="70"/>
-      <c r="AL11" s="70"/>
-      <c r="AM11" s="70"/>
-      <c r="AN11" s="70"/>
-      <c r="AO11" s="70"/>
-      <c r="AP11" s="70"/>
-      <c r="AQ11" s="70"/>
-      <c r="AR11" s="70"/>
-      <c r="AS11" s="70"/>
-      <c r="AT11" s="70"/>
-      <c r="AU11" s="70"/>
-      <c r="AV11" s="70"/>
-      <c r="AW11" s="72"/>
-      <c r="AX11" s="72"/>
-      <c r="AY11" s="72"/>
-      <c r="AZ11" s="72"/>
-      <c r="BA11" s="73"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="96"/>
+      <c r="AB11" s="96"/>
+      <c r="AC11" s="96"/>
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="96"/>
+      <c r="AG11" s="96"/>
+      <c r="AH11" s="96"/>
+      <c r="AI11" s="96"/>
+      <c r="AJ11" s="96"/>
+      <c r="AK11" s="95"/>
+      <c r="AL11" s="95"/>
+      <c r="AM11" s="95"/>
+      <c r="AN11" s="95"/>
+      <c r="AO11" s="95"/>
+      <c r="AP11" s="95"/>
+      <c r="AQ11" s="95"/>
+      <c r="AR11" s="95"/>
+      <c r="AS11" s="95"/>
+      <c r="AT11" s="95"/>
+      <c r="AU11" s="95"/>
+      <c r="AV11" s="95"/>
+      <c r="AW11" s="97"/>
+      <c r="AX11" s="97"/>
+      <c r="AY11" s="97"/>
+      <c r="AZ11" s="97"/>
+      <c r="BA11" s="98"/>
     </row>
     <row r="12" spans="1:59" s="64" customFormat="1"/>
     <row r="13" spans="1:59" s="64" customFormat="1"/>
@@ -4058,6 +4077,36 @@
     <row r="18" s="64" customFormat="1"/>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AJ11"/>
+    <mergeCell ref="AK11:AV11"/>
+    <mergeCell ref="AW11:BA11"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AJ10"/>
+    <mergeCell ref="AK10:AV10"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AJ9"/>
+    <mergeCell ref="AK9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AJ8"/>
+    <mergeCell ref="AK8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="X6:AJ6"/>
+    <mergeCell ref="AK6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="X7:AJ7"/>
+    <mergeCell ref="AK7:AV7"/>
+    <mergeCell ref="AW7:BA7"/>
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="A2:I4"/>
     <mergeCell ref="J2:O4"/>
@@ -4071,36 +4120,6 @@
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AM1:AQ1"/>
     <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="X7:AJ7"/>
-    <mergeCell ref="AK7:AV7"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="X6:AJ6"/>
-    <mergeCell ref="AK6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AJ8"/>
-    <mergeCell ref="AK8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AJ9"/>
-    <mergeCell ref="AK9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AJ10"/>
-    <mergeCell ref="AK10:AV10"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AJ11"/>
-    <mergeCell ref="AK11:AV11"/>
-    <mergeCell ref="AW11:BA11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>
@@ -4113,10 +4132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4712,6 +4731,90 @@
         <f>P59+P56+P53</f>
         <v>735</v>
       </c>
+    </row>
+    <row r="67" spans="9:18">
+      <c r="I67" s="113"/>
+      <c r="J67" s="113"/>
+      <c r="K67" s="113"/>
+      <c r="L67" s="113"/>
+      <c r="M67" s="113"/>
+      <c r="N67" s="113"/>
+      <c r="O67" s="113"/>
+      <c r="P67" s="113"/>
+      <c r="Q67" s="113"/>
+      <c r="R67" s="113"/>
+    </row>
+    <row r="68" spans="9:18">
+      <c r="I68" s="113"/>
+      <c r="J68" s="113"/>
+      <c r="K68" s="113"/>
+      <c r="L68" s="113"/>
+      <c r="M68" s="113"/>
+      <c r="N68" s="113"/>
+      <c r="O68" s="113"/>
+      <c r="P68" s="113"/>
+      <c r="Q68" s="113"/>
+      <c r="R68" s="113"/>
+    </row>
+    <row r="69" spans="9:18">
+      <c r="I69" s="113"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="115"/>
+      <c r="L69" s="114"/>
+      <c r="M69" s="114"/>
+      <c r="N69" s="116"/>
+      <c r="O69" s="114"/>
+      <c r="P69" s="114"/>
+      <c r="Q69" s="114"/>
+      <c r="R69" s="113"/>
+    </row>
+    <row r="70" spans="9:18">
+      <c r="I70" s="113"/>
+      <c r="J70" s="114"/>
+      <c r="K70" s="115"/>
+      <c r="L70" s="114"/>
+      <c r="M70" s="114"/>
+      <c r="N70" s="116"/>
+      <c r="O70" s="114"/>
+      <c r="P70" s="114"/>
+      <c r="Q70" s="114"/>
+      <c r="R70" s="113"/>
+    </row>
+    <row r="71" spans="9:18">
+      <c r="I71" s="113"/>
+      <c r="J71" s="113"/>
+      <c r="K71" s="113"/>
+      <c r="L71" s="113"/>
+      <c r="M71" s="113"/>
+      <c r="N71" s="113"/>
+      <c r="O71" s="113"/>
+      <c r="P71" s="113"/>
+      <c r="Q71" s="113"/>
+      <c r="R71" s="113"/>
+    </row>
+    <row r="72" spans="9:18">
+      <c r="I72" s="113"/>
+      <c r="J72" s="113"/>
+      <c r="K72" s="113"/>
+      <c r="L72" s="113"/>
+      <c r="M72" s="113"/>
+      <c r="N72" s="113"/>
+      <c r="O72" s="113"/>
+      <c r="P72" s="113"/>
+      <c r="Q72" s="113"/>
+      <c r="R72" s="113"/>
+    </row>
+    <row r="73" spans="9:18">
+      <c r="I73" s="113"/>
+      <c r="J73" s="113"/>
+      <c r="K73" s="113"/>
+      <c r="L73" s="113"/>
+      <c r="M73" s="113"/>
+      <c r="N73" s="113"/>
+      <c r="O73" s="113"/>
+      <c r="P73" s="113"/>
+      <c r="Q73" s="113"/>
+      <c r="R73" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="8">
